--- a/docs/StructureDefinition-CondicionLE1.xlsx
+++ b/docs/StructureDefinition-CondicionLE1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionLE1.xlsx
+++ b/docs/StructureDefinition-CondicionLE1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionLE1.xlsx
+++ b/docs/StructureDefinition-CondicionLE1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -920,13 +920,13 @@
     <t>Condition.code.coding.system</t>
   </si>
   <si>
-    <t>http://id.who.int/icd/release/11/mms</t>
-  </si>
-  <si>
     <t>Condition.code.coding.version</t>
   </si>
   <si>
     <t>Condition.code.coding.code</t>
+  </si>
+  <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSTipoCodDiagnostica</t>
   </si>
   <si>
     <t>Condition.code.coding.display</t>
@@ -972,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PacienteLE)
 </t>
   </si>
   <si>
@@ -1652,7 +1652,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1667,7 +1667,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.09765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.06640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5585,7 +5585,7 @@
         <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>75</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5779,10 +5779,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5840,13 +5840,11 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5910,7 +5908,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
